--- a/data/trans_dic/P21B_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,82</t>
+          <t>0,0; 16,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 41,24</t>
+          <t>5,42; 41,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,88</t>
+          <t>0,0; 11,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 21,72</t>
+          <t>2,51; 21,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,97</t>
+          <t>0,89; 9,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>0,0; 6,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,82</t>
+          <t>0,57; 4,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,53</t>
+          <t>0,74; 6,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,67</t>
+          <t>1,02; 5,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,23</t>
+          <t>0,46; 4,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,22</t>
+          <t>0,56; 4,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,86</t>
+          <t>0,48; 4,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 15,44</t>
+          <t>5,61; 15,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,0</t>
+          <t>0,92; 5,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,95</t>
+          <t>2,17; 8,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,07</t>
+          <t>1,06; 4,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,25</t>
+          <t>0,39; 2,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 9,77</t>
+          <t>4,47; 10,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 16,72</t>
+          <t>4,09; 16,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,48</t>
+          <t>1,04; 5,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 10,78</t>
+          <t>2,44; 11,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,65</t>
+          <t>1,94; 8,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,38</t>
+          <t>1,96; 7,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 14,4</t>
+          <t>4,58; 14,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,03</t>
+          <t>3,81; 9,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,86</t>
+          <t>1,84; 5,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,95</t>
+          <t>4,58; 11,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 11,67</t>
+          <t>3,07; 11,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,46</t>
+          <t>0,59; 5,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 13,17</t>
+          <t>4,26; 12,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,98</t>
+          <t>1,65; 6,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 10,89</t>
+          <t>4,24; 11,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 14,26</t>
+          <t>5,76; 13,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,91</t>
+          <t>2,69; 7,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,63</t>
+          <t>3,29; 7,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,13</t>
+          <t>6,4; 12,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,53</t>
+          <t>2,46; 6,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,74</t>
+          <t>1,3; 3,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,4</t>
+          <t>4,6; 9,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,28</t>
+          <t>1,81; 4,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,44</t>
+          <t>2,12; 4,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,41</t>
+          <t>5,44; 9,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,52</t>
+          <t>2,46; 4,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,77</t>
+          <t>2,04; 3,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,46</t>
+          <t>5,56; 8,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
